--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value810.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value810.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.98099351048711</v>
+        <v>1.116748213768005</v>
       </c>
       <c r="B1">
-        <v>2.698997939580835</v>
+        <v>1.735088706016541</v>
       </c>
       <c r="C1">
-        <v>2.041312187476662</v>
+        <v>4.522050380706787</v>
       </c>
       <c r="D1">
-        <v>1.926480395999305</v>
+        <v>0.3457743525505066</v>
       </c>
       <c r="E1">
-        <v>1.781561357537964</v>
+        <v>0.3952162861824036</v>
       </c>
     </row>
   </sheetData>
